--- a/analyses/reference_panel_thies_clades/newSequencing.xlsx
+++ b/analyses/reference_panel_thies_clades/newSequencing.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="10080" windowWidth="13840" windowHeight="11180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12320" yWindow="3620" windowWidth="26200" windowHeight="17440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>SUM</t>
   </si>
@@ -50,13 +50,76 @@
   </si>
   <si>
     <t>remain</t>
+  </si>
+  <si>
+    <t>Th103.11</t>
+  </si>
+  <si>
+    <t>Th104.11</t>
+  </si>
+  <si>
+    <t>Th123.11</t>
+  </si>
+  <si>
+    <t>Th114.12</t>
+  </si>
+  <si>
+    <t>Th214.12</t>
+  </si>
+  <si>
+    <t>Th072.13</t>
+  </si>
+  <si>
+    <t>Th005.11</t>
+  </si>
+  <si>
+    <t>Th031.11</t>
+  </si>
+  <si>
+    <t>Th095.11</t>
+  </si>
+  <si>
+    <t>Th105.11</t>
+  </si>
+  <si>
+    <t>Th145.11</t>
+  </si>
+  <si>
+    <t>Th025.10</t>
+  </si>
+  <si>
+    <t>Th125.10</t>
+  </si>
+  <si>
+    <t>Th156.10</t>
+  </si>
+  <si>
+    <t>Th199.10</t>
+  </si>
+  <si>
+    <t>Th062.09</t>
+  </si>
+  <si>
+    <t>Th219.12</t>
+  </si>
+  <si>
+    <t>Th161.12</t>
+  </si>
+  <si>
+    <t>Th203.12</t>
+  </si>
+  <si>
+    <t>Th054.12</t>
+  </si>
+  <si>
+    <t>Th170.12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,8 +158,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +195,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -131,7 +211,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -170,8 +250,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -197,8 +307,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="68">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -217,6 +332,21 @@
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -235,6 +365,21 @@
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -633,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <f>(E3+C3)/B3</f>
+        <f t="shared" ref="F3:F8" si="0">(E3+C3)/B3</f>
         <v>1</v>
       </c>
     </row>
@@ -655,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3">
-        <f>(E4+C4)/B4</f>
+        <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
@@ -677,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="3">
-        <f>(E5+C5)/B5</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -699,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <f>(E6+C6)/B6</f>
+        <f t="shared" si="0"/>
         <v>0.41176470588235292</v>
       </c>
     </row>
@@ -719,7 +864,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
-        <f>(E7+C7)/B7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -741,7 +886,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="16">
-        <f>(E8+C8)/B8</f>
+        <f t="shared" si="0"/>
         <v>0.46551724137931033</v>
       </c>
     </row>
@@ -938,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B15" sqref="B15:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1198,9 +1343,110 @@
       </c>
     </row>
     <row r="14" spans="1:6">
+      <c r="E14">
+        <f>SUM(E2:E12)</f>
+        <v>21</v>
+      </c>
       <c r="F14">
         <f>SUM(F2:F12)</f>
         <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
